--- a/export/wyx_0.xlsx
+++ b/export/wyx_0.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,12 +411,6 @@
       <c r="J1" t="str">
         <v>负责人</v>
       </c>
-      <c r="K1" t="str">
-        <v>是否京东自营</v>
-      </c>
-      <c r="L1" t="str">
-        <v>店铺名</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -443,12 +437,6 @@
       <c r="J2" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K2" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L2" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -475,12 +463,6 @@
       <c r="J3" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K3" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L3" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -507,12 +489,6 @@
       <c r="J4" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K4" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L4" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -539,12 +515,6 @@
       <c r="J5" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K5" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L5" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -571,12 +541,6 @@
       <c r="J6" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K6" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L6" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -603,12 +567,6 @@
       <c r="J7" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K7" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L7" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -635,12 +593,6 @@
       <c r="J8" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K8" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L8" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -667,12 +619,6 @@
       <c r="J9" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K9" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L9" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -699,12 +645,6 @@
       <c r="J10" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K10" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L10" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -731,12 +671,6 @@
       <c r="J11" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K11" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L11" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -763,12 +697,6 @@
       <c r="J12" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K12" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L12" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -798,12 +726,6 @@
       <c r="J13" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K13" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L13" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -833,12 +755,6 @@
       <c r="J14" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v>九月工具专营店</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -865,12 +781,6 @@
       <c r="J15" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K15" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L15" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -900,9 +810,6 @@
       <c r="J16" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -929,12 +836,6 @@
       <c r="J17" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K17" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L17" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -964,9 +865,6 @@
       <c r="J18" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -993,12 +891,6 @@
       <c r="J19" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K19" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L19" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1025,12 +917,6 @@
       <c r="J20" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K20" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L20" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1060,12 +946,6 @@
       <c r="J21" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K21" t="str">
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <v>九月工具专营店</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1092,12 +972,6 @@
       <c r="J22" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K22" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L22" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1124,12 +998,6 @@
       <c r="J23" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K23" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L23" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1156,12 +1024,6 @@
       <c r="J24" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K24" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L24" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1188,12 +1050,6 @@
       <c r="J25" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K25" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L25" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1220,12 +1076,6 @@
       <c r="J26" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K26" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L26" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1255,9 +1105,6 @@
       <c r="J27" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K27" t="str">
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1284,12 +1131,6 @@
       <c r="J28" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K28" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L28" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1319,12 +1160,6 @@
       <c r="J29" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K29" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L29" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1354,12 +1189,6 @@
       <c r="J30" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K30" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L30" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1386,12 +1215,6 @@
       <c r="J31" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K31" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L31" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1418,12 +1241,6 @@
       <c r="J32" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K32" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L32" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1450,12 +1267,6 @@
       <c r="J33" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K33" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L33" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1485,12 +1296,6 @@
       <c r="J34" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K34" t="str">
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <v>Tajima旗舰店</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1520,12 +1325,6 @@
       <c r="J35" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K35" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L35" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1549,12 +1348,6 @@
       <c r="J36" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K36" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L36" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1578,12 +1371,6 @@
       <c r="J37" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K37" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L37" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1607,12 +1394,6 @@
       <c r="J38" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K38" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L38" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1636,12 +1417,6 @@
       <c r="J39" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K39" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L39" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1665,12 +1440,6 @@
       <c r="J40" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K40" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L40" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1694,12 +1463,6 @@
       <c r="J41" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K41" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L41" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1723,12 +1486,6 @@
       <c r="J42" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K42" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L42" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1752,12 +1509,6 @@
       <c r="J43" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K43" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L43" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1781,12 +1532,6 @@
       <c r="J44" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K44" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L44" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1810,12 +1555,6 @@
       <c r="J45" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K45" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L45" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1839,12 +1578,6 @@
       <c r="J46" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K46" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L46" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1868,12 +1601,6 @@
       <c r="J47" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K47" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L47" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1897,12 +1624,6 @@
       <c r="J48" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K48" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L48" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1926,12 +1647,6 @@
       <c r="J49" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K49" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L49" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1955,12 +1670,6 @@
       <c r="J50" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K50" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L50" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1984,12 +1693,6 @@
       <c r="J51" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K51" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L51" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -2013,12 +1716,6 @@
       <c r="J52" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K52" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L52" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2042,12 +1739,6 @@
       <c r="J53" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K53" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L53" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2071,12 +1762,6 @@
       <c r="J54" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K54" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L54" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -2100,12 +1785,6 @@
       <c r="J55" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K55" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L55" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -2129,12 +1808,6 @@
       <c r="J56" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K56" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L56" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2158,12 +1831,6 @@
       <c r="J57" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K57" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L57" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2187,12 +1854,6 @@
       <c r="J58" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K58" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L58" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2216,12 +1877,6 @@
       <c r="J59" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K59" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L59" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2245,12 +1900,6 @@
       <c r="J60" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K60" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L60" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2274,12 +1923,6 @@
       <c r="J61" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K61" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L61" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2303,12 +1946,6 @@
       <c r="J62" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K62" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L62" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2332,12 +1969,6 @@
       <c r="J63" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K63" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L63" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2361,12 +1992,6 @@
       <c r="J64" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K64" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L64" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2390,12 +2015,6 @@
       <c r="J65" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K65" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L65" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2419,12 +2038,6 @@
       <c r="J66" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K66" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L66" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2448,12 +2061,6 @@
       <c r="J67" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K67" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L67" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2477,12 +2084,6 @@
       <c r="J68" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K68" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L68" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2506,12 +2107,6 @@
       <c r="J69" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K69" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L69" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2535,12 +2130,6 @@
       <c r="J70" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K70" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L70" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -2564,12 +2153,6 @@
       <c r="J71" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K71" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L71" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -2593,12 +2176,6 @@
       <c r="J72" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K72" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L72" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -2622,12 +2199,6 @@
       <c r="J73" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K73" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L73" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2651,12 +2222,6 @@
       <c r="J74" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K74" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L74" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -2680,12 +2245,6 @@
       <c r="J75" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K75" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L75" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -2709,12 +2268,6 @@
       <c r="J76" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K76" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L76" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -2738,12 +2291,6 @@
       <c r="J77" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K77" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L77" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -2767,12 +2314,6 @@
       <c r="J78" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K78" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L78" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -2796,12 +2337,6 @@
       <c r="J79" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K79" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L79" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -2825,12 +2360,6 @@
       <c r="J80" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K80" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L80" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -2854,12 +2383,6 @@
       <c r="J81" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K81" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L81" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -2883,12 +2406,6 @@
       <c r="J82" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K82" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L82" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -2912,12 +2429,6 @@
       <c r="J83" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K83" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L83" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -2941,12 +2452,6 @@
       <c r="J84" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K84" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L84" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2970,12 +2475,6 @@
       <c r="J85" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K85" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L85" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -2999,12 +2498,6 @@
       <c r="J86" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K86" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L86" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3028,12 +2521,6 @@
       <c r="J87" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K87" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L87" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3057,12 +2544,6 @@
       <c r="J88" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K88" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L88" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3086,12 +2567,6 @@
       <c r="J89" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K89" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L89" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3115,12 +2590,6 @@
       <c r="J90" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K90" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L90" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3144,12 +2613,6 @@
       <c r="J91" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K91" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L91" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3173,12 +2636,6 @@
       <c r="J92" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K92" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L92" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3202,12 +2659,6 @@
       <c r="J93" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K93" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L93" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3226,13 +2677,10 @@
         <v>https://item.jd.com/100002069159.html</v>
       </c>
       <c r="I94" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J94" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K94" t="str">
-        <v/>
       </c>
     </row>
     <row r="95">
@@ -3257,12 +2705,6 @@
       <c r="J95" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K95" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L95" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3281,13 +2723,10 @@
         <v>https://item.jd.com/100002069155.html</v>
       </c>
       <c r="I96" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J96" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K96" t="str">
-        <v/>
       </c>
     </row>
     <row r="97">
@@ -3312,12 +2751,6 @@
       <c r="J97" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K97" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L97" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3341,12 +2774,6 @@
       <c r="J98" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K98" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L98" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3365,13 +2792,10 @@
         <v>https://item.jd.com/100002950778.html</v>
       </c>
       <c r="I99" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J99" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K99" t="str">
-        <v/>
       </c>
     </row>
     <row r="100">
@@ -3391,13 +2815,10 @@
         <v>https://item.jd.com/100002069163.html</v>
       </c>
       <c r="I100" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J100" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K100" t="str">
-        <v/>
       </c>
     </row>
     <row r="101">
@@ -3417,13 +2838,10 @@
         <v>https://item.jd.com/100002951018.html</v>
       </c>
       <c r="I101" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J101" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K101" t="str">
-        <v/>
       </c>
     </row>
     <row r="102">
@@ -3448,12 +2866,6 @@
       <c r="J102" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K102" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L102" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -3477,12 +2889,6 @@
       <c r="J103" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K103" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L103" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -3506,12 +2912,6 @@
       <c r="J104" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K104" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L104" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -3535,12 +2935,6 @@
       <c r="J105" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K105" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L105" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -3564,12 +2958,6 @@
       <c r="J106" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K106" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L106" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -3593,12 +2981,6 @@
       <c r="J107" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K107" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L107" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -3622,12 +3004,6 @@
       <c r="J108" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K108" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L108" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -3651,12 +3027,6 @@
       <c r="J109" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K109" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L109" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -3680,12 +3050,6 @@
       <c r="J110" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K110" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L110" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -3709,12 +3073,6 @@
       <c r="J111" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K111" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L111" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -3738,12 +3096,6 @@
       <c r="J112" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K112" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L112" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -3767,12 +3119,6 @@
       <c r="J113" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K113" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L113" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -3796,12 +3142,6 @@
       <c r="J114" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K114" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L114" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -3825,12 +3165,6 @@
       <c r="J115" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K115" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L115" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -3854,12 +3188,6 @@
       <c r="J116" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K116" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L116" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -3883,12 +3211,6 @@
       <c r="J117" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K117" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L117" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -3912,12 +3234,6 @@
       <c r="J118" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K118" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L118" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -3941,12 +3257,6 @@
       <c r="J119" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K119" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L119" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -3970,12 +3280,6 @@
       <c r="J120" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K120" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L120" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -3999,12 +3303,6 @@
       <c r="J121" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K121" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L121" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -4028,12 +3326,6 @@
       <c r="J122" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K122" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L122" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -4057,12 +3349,6 @@
       <c r="J123" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K123" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L123" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -4086,12 +3372,6 @@
       <c r="J124" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K124" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L124" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -4115,12 +3395,6 @@
       <c r="J125" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K125" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L125" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -4144,12 +3418,6 @@
       <c r="J126" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K126" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L126" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -4173,12 +3441,6 @@
       <c r="J127" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K127" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L127" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -4202,12 +3464,6 @@
       <c r="J128" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K128" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L128" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -4231,12 +3487,6 @@
       <c r="J129" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K129" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L129" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -4260,12 +3510,6 @@
       <c r="J130" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K130" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L130" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -4289,12 +3533,6 @@
       <c r="J131" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K131" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L131" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -4318,12 +3556,6 @@
       <c r="J132" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K132" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L132" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -4347,12 +3579,6 @@
       <c r="J133" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K133" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L133" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -4376,12 +3602,6 @@
       <c r="J134" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K134" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L134" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -4405,12 +3625,6 @@
       <c r="J135" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K135" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L135" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -4434,12 +3648,6 @@
       <c r="J136" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K136" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L136" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -4463,12 +3671,6 @@
       <c r="J137" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K137" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L137" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -4492,12 +3694,6 @@
       <c r="J138" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K138" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L138" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -4521,12 +3717,6 @@
       <c r="J139" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K139" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L139" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -4550,12 +3740,6 @@
       <c r="J140" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K140" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L140" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -4579,12 +3763,6 @@
       <c r="J141" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K141" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L141" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -4608,12 +3786,6 @@
       <c r="J142" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K142" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L142" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -4637,12 +3809,6 @@
       <c r="J143" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K143" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L143" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -4666,12 +3832,6 @@
       <c r="J144" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K144" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L144" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -4695,12 +3855,6 @@
       <c r="J145" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K145" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L145" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -4724,12 +3878,6 @@
       <c r="J146" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K146" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L146" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -4753,12 +3901,6 @@
       <c r="J147" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K147" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L147" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -4782,12 +3924,6 @@
       <c r="J148" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K148" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L148" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -4811,12 +3947,6 @@
       <c r="J149" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K149" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L149" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -4840,12 +3970,6 @@
       <c r="J150" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K150" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L150" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -4869,12 +3993,6 @@
       <c r="J151" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K151" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L151" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -4898,12 +4016,6 @@
       <c r="J152" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K152" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L152" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -4927,12 +4039,6 @@
       <c r="J153" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K153" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L153" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -4956,12 +4062,6 @@
       <c r="J154" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K154" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L154" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -4985,12 +4085,6 @@
       <c r="J155" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K155" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L155" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -5014,12 +4108,6 @@
       <c r="J156" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K156" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L156" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -5043,12 +4131,6 @@
       <c r="J157" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K157" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L157" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -5072,12 +4154,6 @@
       <c r="J158" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K158" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L158" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -5101,12 +4177,6 @@
       <c r="J159" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K159" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L159" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -5130,12 +4200,6 @@
       <c r="J160" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K160" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L160" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -5159,12 +4223,6 @@
       <c r="J161" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K161" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L161" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -5188,12 +4246,6 @@
       <c r="J162" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K162" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L162" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -5217,12 +4269,6 @@
       <c r="J163" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K163" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L163" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -5246,12 +4292,6 @@
       <c r="J164" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K164" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L164" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -5275,12 +4315,6 @@
       <c r="J165" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K165" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L165" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -5304,12 +4338,6 @@
       <c r="J166" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K166" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L166" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -5333,12 +4361,6 @@
       <c r="J167" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K167" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L167" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -5362,12 +4384,6 @@
       <c r="J168" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K168" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L168" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -5391,12 +4407,6 @@
       <c r="J169" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K169" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L169" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -5420,12 +4430,6 @@
       <c r="J170" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K170" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L170" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -5449,12 +4453,6 @@
       <c r="J171" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K171" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L171" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -5478,12 +4476,6 @@
       <c r="J172" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K172" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L172" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -5507,12 +4499,6 @@
       <c r="J173" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K173" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L173" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -5536,12 +4522,6 @@
       <c r="J174" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K174" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L174" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -5565,12 +4545,6 @@
       <c r="J175" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K175" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L175" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -5594,12 +4568,6 @@
       <c r="J176" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K176" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L176" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -5623,12 +4591,6 @@
       <c r="J177" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K177" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L177" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -5652,12 +4614,6 @@
       <c r="J178" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K178" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L178" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -5681,12 +4637,6 @@
       <c r="J179" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K179" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L179" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -5710,12 +4660,6 @@
       <c r="J180" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K180" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L180" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -5739,12 +4683,6 @@
       <c r="J181" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K181" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L181" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -5768,12 +4706,6 @@
       <c r="J182" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K182" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L182" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -5797,12 +4729,6 @@
       <c r="J183" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K183" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L183" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -5826,12 +4752,6 @@
       <c r="J184" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K184" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L184" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -5855,12 +4775,6 @@
       <c r="J185" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K185" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L185" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -5884,12 +4798,6 @@
       <c r="J186" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K186" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L186" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -5913,12 +4821,6 @@
       <c r="J187" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K187" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L187" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -5937,13 +4839,10 @@
         <v>https://item.jd.com/100003044088.html</v>
       </c>
       <c r="I188" t="str">
-        <v/>
+        <v>暂无定价</v>
       </c>
       <c r="J188" t="str">
         <v>汪怡璇</v>
-      </c>
-      <c r="K188" t="str">
-        <v/>
       </c>
     </row>
     <row r="189">
@@ -5968,12 +4867,6 @@
       <c r="J189" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K189" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L189" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -5997,12 +4890,6 @@
       <c r="J190" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K190" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L190" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -6026,12 +4913,6 @@
       <c r="J191" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K191" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L191" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -6055,12 +4936,6 @@
       <c r="J192" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K192" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L192" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -6084,12 +4959,6 @@
       <c r="J193" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K193" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L193" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -6113,12 +4982,6 @@
       <c r="J194" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K194" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L194" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -6142,12 +5005,6 @@
       <c r="J195" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K195" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L195" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -6171,12 +5028,6 @@
       <c r="J196" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K196" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L196" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -6200,12 +5051,6 @@
       <c r="J197" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K197" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L197" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -6229,12 +5074,6 @@
       <c r="J198" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K198" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L198" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -6258,12 +5097,6 @@
       <c r="J199" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K199" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L199" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -6287,12 +5120,6 @@
       <c r="J200" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K200" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L200" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -6316,12 +5143,6 @@
       <c r="J201" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K201" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L201" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -6345,12 +5166,6 @@
       <c r="J202" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K202" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L202" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -6374,12 +5189,6 @@
       <c r="J203" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K203" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L203" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -6403,12 +5212,6 @@
       <c r="J204" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K204" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L204" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -6432,12 +5235,6 @@
       <c r="J205" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K205" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L205" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -6461,12 +5258,6 @@
       <c r="J206" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K206" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L206" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -6490,12 +5281,6 @@
       <c r="J207" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K207" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L207" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -6519,12 +5304,6 @@
       <c r="J208" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K208" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L208" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -6548,12 +5327,6 @@
       <c r="J209" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K209" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L209" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -6577,12 +5350,6 @@
       <c r="J210" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K210" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L210" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -6606,12 +5373,6 @@
       <c r="J211" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K211" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L211" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -6635,12 +5396,6 @@
       <c r="J212" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K212" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L212" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -6664,12 +5419,6 @@
       <c r="J213" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K213" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L213" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -6693,16 +5442,10 @@
       <c r="J214" t="str">
         <v>汪怡璇</v>
       </c>
-      <c r="K214" t="str">
-        <v>京东自营</v>
-      </c>
-      <c r="L214" t="str">
-        <v>田岛（TAJIMA）京东自营旗舰店</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L214"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J214"/>
   </ignoredErrors>
 </worksheet>
 </file>